--- a/Working/HW1_BoxModel_Excel/Starter_Code/1D ss satd.xlsx
+++ b/Working/HW1_BoxModel_Excel/Starter_Code/1D ss satd.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laura/Documents/Teaching/Groundwater_Modeling/HWRS582_Spring22/Git_Course-Materials22/Assignments/HW1_BoxModel_Excel/Starter_Code/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tento\Documents\GW_Modeling\homework-akahler03\Working\HW1_BoxModel_Excel\Starter_Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA7D5E2-36CE-CC4E-BD6D-C04978DD9224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B0523E-394F-4DE3-A729-E1C4371AA4EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29260" windowHeight="18420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="inputs" sheetId="2" r:id="rId1"/>
@@ -509,37 +509,37 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>91.670554851643914</c:v>
+                  <c:v>95.294958505594039</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>83.340588785280644</c:v>
+                  <c:v>90.590677600203108</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>75.00991113168368</c:v>
+                  <c:v>85.88753102212722</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>66.678391661347746</c:v>
+                  <c:v>83.443217746246688</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>58.345965259518394</c:v>
+                  <c:v>83.256525337487702</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50.012631926192974</c:v>
+                  <c:v>83.071167585571885</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41.678452414260022</c:v>
+                  <c:v>82.887141692857327</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>33.343540090155543</c:v>
+                  <c:v>73.595019557718956</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>25.008049815312411</c:v>
+                  <c:v>55.195669367992856</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16.672164792773525</c:v>
+                  <c:v>36.796914478563117</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.3360823963867627</c:v>
+                  <c:v>18.398457239281559</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
@@ -873,40 +873,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="1">
-                  <c:v>6.6635561186848685E-4</c:v>
+                  <c:v>3.7640331955247685E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.6639728530906153E-4</c:v>
+                  <c:v>3.7634247243127444E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.6645421228775717E-4</c:v>
+                  <c:v>3.7625172624607101E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.6652155762687469E-4</c:v>
+                  <c:v>3.7604819628931258E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.6659411214634815E-4</c:v>
+                  <c:v>3.7338481751797306E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.6666666666603358E-4</c:v>
+                  <c:v>3.7071550383163302E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.6673436095463618E-4</c:v>
+                  <c:v>3.6805178542911675E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.6679298592835841E-4</c:v>
+                  <c:v>3.6800483703518298E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.6683922198745047E-4</c:v>
+                  <c:v>3.67987003794522E-4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.6687080180311085E-4</c:v>
+                  <c:v>3.6797509778859475E-4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.6688659171094098E-4</c:v>
+                  <c:v>3.6796914478563118E-4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.6688659171094098E-4</c:v>
+                  <c:v>3.6796914478563118E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1749,17 +1749,17 @@
   <dimension ref="B4:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.1640625" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>10</v>
       </c>
@@ -1778,13 +1778,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>13</v>
       </c>
@@ -1795,7 +1795,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>1</v>
       </c>
@@ -1803,10 +1803,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>15</v>
       </c>
@@ -1817,7 +1817,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
         <v>5</v>
       </c>
@@ -1825,7 +1825,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>6</v>
       </c>
@@ -1833,7 +1833,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
         <v>22</v>
       </c>
@@ -1841,7 +1841,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>14</v>
       </c>
@@ -1856,7 +1856,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D17" s="1">
         <v>1</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D18" s="1">
         <v>1</v>
       </c>
@@ -1874,7 +1874,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D19" s="1">
         <v>1</v>
       </c>
@@ -1883,43 +1883,43 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D20" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20" s="1">
         <f t="shared" si="0"/>
-        <v>4.0000000000000002E-4</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D21" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" si="0"/>
-        <v>4.0000000000000002E-4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D22" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" si="0"/>
-        <v>4.0000000000000002E-4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D23" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23" s="1">
         <f t="shared" si="0"/>
-        <v>4.0000000000000002E-4</v>
-      </c>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D24" s="1">
         <v>3</v>
       </c>
@@ -1928,7 +1928,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D25" s="1">
         <v>3</v>
       </c>
@@ -1937,7 +1937,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D26" s="1">
         <v>3</v>
       </c>
@@ -1946,7 +1946,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D27" s="1">
         <v>3</v>
       </c>
@@ -1955,7 +1955,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
         <v>16</v>
       </c>
@@ -1967,7 +1967,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>18</v>
       </c>
@@ -1975,17 +1975,17 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C34" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
         <v>21</v>
       </c>
@@ -2005,19 +2005,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:T31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="6.6640625" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:20" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="2:20" ht="14" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:20" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B4" s="22" t="s">
         <v>32</v>
       </c>
@@ -2028,7 +2028,7 @@
       <c r="S4" s="14"/>
       <c r="T4" s="15"/>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
@@ -2039,7 +2039,7 @@
       <c r="S5" s="26"/>
       <c r="T5" s="27"/>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B6" s="3"/>
       <c r="C6" s="4" t="s">
         <v>12</v>
@@ -2076,7 +2076,7 @@
       <c r="S6" s="6"/>
       <c r="T6" s="17"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>28</v>
       </c>
@@ -2085,7 +2085,7 @@
       </c>
       <c r="D7" s="7">
         <f>SUM(L9:L19)+0.5*(L8+L20)</f>
-        <v>12</v>
+        <v>3.5</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="T7" s="17"/>
     </row>
-    <row r="8" spans="2:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:20" ht="15" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>29</v>
       </c>
@@ -2110,7 +2110,7 @@
       </c>
       <c r="D8" s="7">
         <f>SUM(M9:M19)+0.5*(M8+M20)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F8" s="1">
         <f>F9+inputs!$D$8</f>
@@ -2152,7 +2152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:20" ht="15" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>30</v>
       </c>
@@ -2161,7 +2161,7 @@
       </c>
       <c r="D9" s="7">
         <f>SUM(N9:N19)+0.5*(N8+N20)</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F9" s="1">
         <f>F10+inputs!$D$8</f>
@@ -2177,11 +2177,11 @@
       </c>
       <c r="I9" s="1">
         <f t="shared" ref="I9:I19" ca="1" si="0">(I8*2/(1/H8+1/H9)+I10*2/(1/H9+1/H10))/(2/(1/H8+1/H9)+2/(1/H9+1/H10))</f>
-        <v>91.670554851643914</v>
+        <v>95.294958505594039</v>
       </c>
       <c r="J9" s="1">
         <f ca="1">(I8-I9)/inputs!$D$8*2/(1/H8+1/H9)</f>
-        <v>6.6635561186848685E-4</v>
+        <v>3.7640331955247685E-4</v>
       </c>
       <c r="L9">
         <f t="shared" ref="L9:L20" si="1">IF($G9=1,1,0)</f>
@@ -2206,7 +2206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:20" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
       <c r="C10" s="6"/>
       <c r="D10" s="7"/>
@@ -2224,11 +2224,11 @@
       </c>
       <c r="I10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>83.340588785280644</v>
+        <v>90.590677600203108</v>
       </c>
       <c r="J10" s="1">
         <f ca="1">(I9-I10)/inputs!$D$8*2/(1/H9+1/H10)</f>
-        <v>6.6639728530906153E-4</v>
+        <v>3.7634247243127444E-4</v>
       </c>
       <c r="L10">
         <f t="shared" si="1"/>
@@ -2253,13 +2253,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:20" ht="15" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="6">
         <f>SUM(D7:D9)/(D7/C7+D8/C8+D9/C9)</f>
-        <v>4.0000000000000002E-4</v>
+        <v>2.2160664819944597E-4</v>
       </c>
       <c r="D11" s="7"/>
       <c r="F11" s="1">
@@ -2276,11 +2276,11 @@
       </c>
       <c r="I11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>75.00991113168368</v>
+        <v>85.88753102212722</v>
       </c>
       <c r="J11" s="1">
         <f ca="1">(I10-I11)/inputs!$D$8*2/(1/H10+1/H11)</f>
-        <v>6.6645421228775717E-4</v>
+        <v>3.7625172624607101E-4</v>
       </c>
       <c r="L11">
         <f t="shared" si="1"/>
@@ -2305,13 +2305,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="2:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="9">
         <f>C11*(I8-I20)/(F8-F20)</f>
-        <v>6.6666666666666664E-4</v>
+        <v>3.6934441366574328E-4</v>
       </c>
       <c r="D12" s="10"/>
       <c r="F12" s="1">
@@ -2320,27 +2320,27 @@
       </c>
       <c r="G12" s="1">
         <f>inputs!D20</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H12" s="1">
         <f>IF(G12=1,+inputs!$D$11,+IF(G12=2,+inputs!$D$12,+inputs!$D$13))</f>
-        <v>4.0000000000000002E-4</v>
+        <v>0.01</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>66.678391661347746</v>
+        <v>83.443217746246688</v>
       </c>
       <c r="J12" s="1">
         <f ca="1">(I11-I12)/inputs!$D$8*2/(1/H11+1/H12)</f>
-        <v>6.6652155762687469E-4</v>
+        <v>3.7604819628931258E-4</v>
       </c>
       <c r="L12">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12">
         <f t="shared" si="3"/>
@@ -2357,34 +2357,34 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="2:20" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="F13" s="1">
         <f>F14+inputs!$D$8</f>
         <v>35</v>
       </c>
       <c r="G13" s="1">
         <f>inputs!D21</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H13" s="1">
         <f>IF(G13=1,+inputs!$D$11,+IF(G13=2,+inputs!$D$12,+inputs!$D$13))</f>
-        <v>4.0000000000000002E-4</v>
+        <v>0.01</v>
       </c>
       <c r="I13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>58.345965259518394</v>
+        <v>83.256525337487702</v>
       </c>
       <c r="J13" s="1">
         <f ca="1">(I12-I13)/inputs!$D$8*2/(1/H12+1/H13)</f>
-        <v>6.6659411214634815E-4</v>
+        <v>3.7338481751797306E-4</v>
       </c>
       <c r="L13">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13">
         <f t="shared" si="3"/>
@@ -2401,34 +2401,34 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="2:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:20" ht="15" x14ac:dyDescent="0.25">
       <c r="F14" s="1">
         <f>F15+inputs!$D$8</f>
         <v>30</v>
       </c>
       <c r="G14" s="1">
         <f>inputs!D22</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H14" s="1">
         <f>IF(G14=1,+inputs!$D$11,+IF(G14=2,+inputs!$D$12,+inputs!$D$13))</f>
-        <v>4.0000000000000002E-4</v>
+        <v>0.01</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>50.012631926192974</v>
+        <v>83.071167585571885</v>
       </c>
       <c r="J14" s="1">
         <f ca="1">(I13-I14)/inputs!$D$8*2/(1/H13+1/H14)</f>
-        <v>6.6666666666603358E-4</v>
+        <v>3.7071550383163302E-4</v>
       </c>
       <c r="L14">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14">
         <f t="shared" si="3"/>
@@ -2445,34 +2445,34 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:20" ht="15" x14ac:dyDescent="0.25">
       <c r="F15" s="1">
         <f>F16+inputs!$D$8</f>
         <v>25</v>
       </c>
       <c r="G15" s="1">
         <f>inputs!D23</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15" s="1">
         <f>IF(G15=1,+inputs!$D$11,+IF(G15=2,+inputs!$D$12,+inputs!$D$13))</f>
-        <v>4.0000000000000002E-4</v>
+        <v>0.01</v>
       </c>
       <c r="I15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>41.678452414260022</v>
+        <v>82.887141692857327</v>
       </c>
       <c r="J15" s="1">
         <f ca="1">(I14-I15)/inputs!$D$8*2/(1/H14+1/H15)</f>
-        <v>6.6673436095463618E-4</v>
+        <v>3.6805178542911675E-4</v>
       </c>
       <c r="L15">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15">
         <f t="shared" si="3"/>
@@ -2489,29 +2489,30 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="2:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:20" ht="15" x14ac:dyDescent="0.25">
       <c r="F16" s="1">
         <f>F17+inputs!$D$8</f>
         <v>20</v>
       </c>
       <c r="G16" s="1">
-        <v>1</v>
+        <f>inputs!D24</f>
+        <v>3</v>
       </c>
       <c r="H16" s="1">
         <f>IF(G16=1,+inputs!$D$11,+IF(G16=2,+inputs!$D$12,+inputs!$D$13))</f>
-        <v>4.0000000000000002E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="I16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>33.343540090155543</v>
+        <v>73.595019557718956</v>
       </c>
       <c r="J16" s="1">
         <f ca="1">(I15-I16)/inputs!$D$8*2/(1/H15+1/H16)</f>
-        <v>6.6679298592835841E-4</v>
+        <v>3.6800483703518298E-4</v>
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <f t="shared" si="2"/>
@@ -2519,7 +2520,7 @@
       </c>
       <c r="N16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="16">
         <v>9</v>
@@ -2532,29 +2533,30 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="6:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="6:20" ht="15" x14ac:dyDescent="0.25">
       <c r="F17" s="1">
         <f>F18+inputs!$D$8</f>
         <v>15</v>
       </c>
       <c r="G17" s="1">
-        <v>1</v>
+        <f>inputs!D25</f>
+        <v>3</v>
       </c>
       <c r="H17" s="1">
         <f>IF(G17=1,+inputs!$D$11,+IF(G17=2,+inputs!$D$12,+inputs!$D$13))</f>
-        <v>4.0000000000000002E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="I17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>25.008049815312411</v>
+        <v>55.195669367992856</v>
       </c>
       <c r="J17" s="1">
         <f ca="1">(I16-I17)/inputs!$D$8*2/(1/H16+1/H17)</f>
-        <v>6.6683922198745047E-4</v>
+        <v>3.67987003794522E-4</v>
       </c>
       <c r="L17">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <f t="shared" si="2"/>
@@ -2562,7 +2564,7 @@
       </c>
       <c r="N17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="16">
         <v>10</v>
@@ -2575,29 +2577,30 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="6:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="6:20" ht="15" x14ac:dyDescent="0.25">
       <c r="F18" s="1">
         <f>F19+inputs!$D$8</f>
         <v>10</v>
       </c>
       <c r="G18" s="1">
-        <v>1</v>
+        <f>inputs!D26</f>
+        <v>3</v>
       </c>
       <c r="H18" s="1">
         <f>IF(G18=1,+inputs!$D$11,+IF(G18=2,+inputs!$D$12,+inputs!$D$13))</f>
-        <v>4.0000000000000002E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="I18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>16.672164792773525</v>
+        <v>36.796914478563117</v>
       </c>
       <c r="J18" s="1">
         <f ca="1">(I17-I18)/inputs!$D$8*2/(1/H17+1/H18)</f>
-        <v>6.6687080180311085E-4</v>
+        <v>3.6797509778859475E-4</v>
       </c>
       <c r="L18">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <f t="shared" si="2"/>
@@ -2605,7 +2608,7 @@
       </c>
       <c r="N18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="16">
         <v>11</v>
@@ -2618,29 +2621,30 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="6:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="6:20" ht="15" x14ac:dyDescent="0.25">
       <c r="F19" s="1">
         <f>F20+inputs!$D$8</f>
         <v>5</v>
       </c>
       <c r="G19" s="1">
-        <v>1</v>
+        <f>inputs!D27</f>
+        <v>3</v>
       </c>
       <c r="H19" s="1">
         <f>IF(G19=1,+inputs!$D$11,+IF(G19=2,+inputs!$D$12,+inputs!$D$13))</f>
-        <v>4.0000000000000002E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="I19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8.3360823963867627</v>
+        <v>18.398457239281559</v>
       </c>
       <c r="J19" s="1">
         <f ca="1">(I18-I19)/inputs!$D$8*2/(1/H18+1/H19)</f>
-        <v>6.6688659171094098E-4</v>
+        <v>3.6796914478563118E-4</v>
       </c>
       <c r="L19">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <f t="shared" si="2"/>
@@ -2648,7 +2652,7 @@
       </c>
       <c r="N19">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="16">
         <v>12</v>
@@ -2661,17 +2665,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="6:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="6:20" ht="15" x14ac:dyDescent="0.25">
       <c r="F20" s="1">
         <f>inputs!D9</f>
         <v>0</v>
       </c>
       <c r="G20" s="1">
-        <v>1</v>
+        <f>inputs!D28</f>
+        <v>3</v>
       </c>
       <c r="H20" s="1">
         <f>IF(G20=1,+inputs!$D$11,+IF(G20=2,+inputs!$D$12,+inputs!$D$13))</f>
-        <v>4.0000000000000002E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="I20" s="2">
         <f>inputs!D5</f>
@@ -2679,11 +2684,11 @@
       </c>
       <c r="J20" s="1">
         <f ca="1">(I19-I20)/inputs!$D$8*2/(1/H19+1/H20)</f>
-        <v>6.6688659171094098E-4</v>
+        <v>3.6796914478563118E-4</v>
       </c>
       <c r="L20">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <f t="shared" si="2"/>
@@ -2691,7 +2696,7 @@
       </c>
       <c r="N20">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="19">
         <v>13</v>
@@ -2704,7 +2709,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="6:20" x14ac:dyDescent="0.15">
+    <row r="31" spans="6:20" x14ac:dyDescent="0.2">
       <c r="P31" s="11"/>
     </row>
   </sheetData>
